--- a/data/Administracion_de_viviendas_publicas/avp_municipios.xlsx
+++ b/data/Administracion_de_viviendas_publicas/avp_municipios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Administracion_de_viviendas_publicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74563536-CB98-46C2-B5CC-750AF12F3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820414A2-E5C3-4874-8291-F4D61B85E999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="4" r:id="rId1"/>
@@ -295,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,19 +397,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,15 +767,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -1881,14 +1881,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1903,15 +1903,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -3017,14 +3017,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3039,15 +3039,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -4153,14 +4153,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4175,15 +4175,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -5289,14 +5289,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5311,15 +5311,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -6425,14 +6425,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6447,15 +6447,15 @@
       <selection activeCell="C2" sqref="C2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -7561,14 +7561,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7579,19 +7579,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2564A5-2BF2-4DF4-8CBA-F07236F3D812}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -8697,14 +8697,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8715,19 +8715,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
+    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
+    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="23.25">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
+    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
+    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
+    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.25">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
+    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
+    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
+    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
+    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="23.25">
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="23.25">
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
+    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
+    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.25">
+    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.25">
+    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
+    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.25">
+    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -9833,14 +9833,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
